--- a/templates/permiso_economico.xlsx
+++ b/templates/permiso_economico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghost\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\gestionRH\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="PERMISO ECONOMICO" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PERMISO ECONOMICO'!$A$1:$U$26</definedName>
     <definedName name="REGISTRA_ASISTENCIA">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -86,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -576,10 +577,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -609,7 +610,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,7 +637,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,34 +645,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,32 +657,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -715,18 +702,32 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A2:AH1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26:U26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="N26" sqref="A1:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1025,22 +1026,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1063,20 +1064,20 @@
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="15.75" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1099,20 +1100,20 @@
       <c r="AH3" s="1"/>
     </row>
     <row r="4" spans="1:34" ht="6.75" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="2"/>
@@ -1180,21 +1181,21 @@
       <c r="E6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="13"/>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
@@ -1220,19 +1221,19 @@
       <c r="G7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
       <c r="U7" s="17"/>
       <c r="V7" s="18"/>
       <c r="W7" s="1"/>
@@ -1258,19 +1259,19 @@
       <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
       <c r="U8" s="17"/>
       <c r="V8" s="18"/>
       <c r="W8" s="1"/>
@@ -1296,19 +1297,19 @@
       <c r="G9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
       <c r="U9" s="17"/>
       <c r="V9" s="18"/>
       <c r="W9" s="1"/>
@@ -1334,19 +1335,19 @@
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
       <c r="U10" s="19"/>
       <c r="V10" s="18"/>
       <c r="W10" s="1"/>
@@ -1372,19 +1373,19 @@
       <c r="G11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
       <c r="U11" s="19"/>
       <c r="V11" s="18"/>
       <c r="W11" s="1"/>
@@ -1410,19 +1411,19 @@
       <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
       <c r="U12" s="20"/>
       <c r="V12" s="18"/>
       <c r="W12" s="1"/>
@@ -1462,147 +1463,147 @@
     </row>
     <row r="14" spans="1:34" ht="18.75" customHeight="1">
       <c r="B14" s="1"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
       <c r="U14" s="22"/>
       <c r="V14" s="25"/>
     </row>
     <row r="15" spans="1:34" ht="18.75" customHeight="1">
       <c r="B15" s="1"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
       <c r="U15" s="22"/>
       <c r="V15" s="25"/>
     </row>
     <row r="16" spans="1:34" ht="18.75" customHeight="1">
       <c r="B16" s="1"/>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
       <c r="U16" s="26"/>
       <c r="V16" s="25"/>
     </row>
     <row r="17" spans="1:34" ht="30" customHeight="1">
       <c r="B17" s="1"/>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="56"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="49"/>
       <c r="U17" s="23"/>
     </row>
     <row r="18" spans="1:34" ht="30" customHeight="1">
       <c r="B18" s="1"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="58"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
       <c r="U18" s="23"/>
     </row>
     <row r="19" spans="1:34" ht="30" customHeight="1">
       <c r="B19" s="1"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="61"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="55"/>
       <c r="U19" s="23"/>
       <c r="V19" s="25"/>
     </row>
@@ -1629,33 +1630,33 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:34" ht="24.75" customHeight="1">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="48" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="48" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
     </row>
     <row r="22" spans="1:34" ht="24.75" customHeight="1">
       <c r="A22" s="4"/>
@@ -1704,54 +1705,54 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="29"/>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
@@ -1767,29 +1768,29 @@
       <c r="AH25" s="24"/>
     </row>
     <row r="26" spans="1:34" ht="24.75" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="47" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="38"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
@@ -2784,12 +2785,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:U25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:U26"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="H15:T15"/>
     <mergeCell ref="H16:T16"/>
@@ -2802,17 +2808,12 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:U21"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:U25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:U26"/>
   </mergeCells>
   <conditionalFormatting sqref="H12 U12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
@@ -2824,8 +2825,8 @@
       <formula>NOT(ISERROR(SEARCH(("con"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/permiso_economico.xlsx
+++ b/templates/permiso_economico.xlsx
@@ -14,11 +14,8 @@
   <sheets>
     <sheet name="PERMISO ECONOMICO" sheetId="5" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PERMISO ECONOMICO'!$A$1:$V$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PERMISO ECONOMICO'!$A$1:$V$29</definedName>
     <definedName name="REGISTRA_ASISTENCIA">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -651,35 +648,35 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,7 +694,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -711,26 +707,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,113 +798,7 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>193860</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="[1]!imp_repTE">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073DE87C-5B49-4E24-AC99-820162597289}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9380220" y="220980"/>
-          <a:ext cx="390525" cy="376740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="FICHA TÉCNICA"/>
-      <sheetName val="BUSCADOR"/>
-      <sheetName val="BDEDAD"/>
-      <sheetName val="SOLICITUD CONTRATO"/>
-      <sheetName val="T.EXTRA"/>
-      <sheetName val="REPORTE"/>
-      <sheetName val="BD"/>
-      <sheetName val="BD PE"/>
-      <sheetName val="D"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="imp_repTE"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A2:AH1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:V28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1135,22 +1026,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1173,20 +1064,20 @@
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1209,20 +1100,20 @@
       <c r="AH3" s="1"/>
     </row>
     <row r="4" spans="1:34" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="2"/>
@@ -1290,21 +1181,21 @@
       <c r="E6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="35"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="13"/>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
@@ -1330,19 +1221,19 @@
       <c r="G7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
       <c r="U7" s="17"/>
       <c r="V7" s="18"/>
       <c r="W7" s="1"/>
@@ -1368,19 +1259,19 @@
       <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
       <c r="U8" s="17"/>
       <c r="V8" s="23"/>
       <c r="W8" s="1"/>
@@ -1406,19 +1297,19 @@
       <c r="G9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -1442,19 +1333,19 @@
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -1478,19 +1369,19 @@
       <c r="G11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -1514,19 +1405,19 @@
       <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -1563,74 +1454,74 @@
     </row>
     <row r="14" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="58" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="37"/>
     </row>
     <row r="16" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -1641,7 +1532,7 @@
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="46"/>
-      <c r="H17" s="53"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
       <c r="K17" s="45"/>
@@ -1658,45 +1549,45 @@
     <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="49"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="48"/>
       <c r="U18" s="20"/>
     </row>
     <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="51"/>
       <c r="U19" s="20"/>
       <c r="V19" s="22"/>
     </row>
@@ -1723,33 +1614,33 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="54" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="54" t="s">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
     </row>
     <row r="22" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -1798,7 +1689,7 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="42"/>
@@ -1823,29 +1714,29 @@
       <c r="U24" s="42"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="26"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="57"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
@@ -1861,29 +1752,29 @@
       <c r="AH25" s="21"/>
     </row>
     <row r="26" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="35"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
@@ -2878,17 +2769,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:U25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:U26"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="H15:T15"/>
     <mergeCell ref="H16:T16"/>
@@ -2901,12 +2787,17 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:U21"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:U25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:U26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="H8:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">

--- a/templates/permiso_economico.xlsx
+++ b/templates/permiso_economico.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Motivo:</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Solicita</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   <si>
     <t>No. de permiso anterior:</t>
   </si>
+  <si>
+    <t>m</t>
+  </si>
 </sst>
 </file>
 
@@ -89,18 +89,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,13 +131,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF2F5496"/>
       <name val="Arial Narrow"/>
@@ -175,20 +161,6 @@
       <sz val="12"/>
       <color theme="4"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -226,22 +198,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -273,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -301,20 +259,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -399,24 +343,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -581,152 +507,175 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,10 +951,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AH1000"/>
+  <dimension ref="A2:U1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1025,23 +974,23 @@
     <col min="22" max="34" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1049,35 +998,22 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1085,70 +1021,44 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+    <row r="4" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7" t="s">
+    <row r="5" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="2"/>
@@ -1159,279 +1069,195 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
     </row>
-    <row r="6" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10" t="s">
+    <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
+      <c r="F6" s="17">
+        <v>22</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="H7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
+      <c r="H8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="H9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="H10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
     </row>
-    <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
+      <c r="H11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
     </row>
-    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="H12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
     </row>
-    <row r="13" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1452,64 +1278,68 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37"/>
-    </row>
-    <row r="16" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
@@ -1523,75 +1353,76 @@
       <c r="S16" s="36"/>
       <c r="T16" s="37"/>
     </row>
-    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="46"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="43"/>
     </row>
-    <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="20"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="22"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:34" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1613,192 +1444,170 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="53" t="s">
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="53" t="s">
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+    </row>
+    <row r="22" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
     </row>
-    <row r="22" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
     </row>
-    <row r="23" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+    <row r="26" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
     </row>
-    <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-    </row>
-    <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-    </row>
-    <row r="26" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="21"/>
-    </row>
-    <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="T27" s="22"/>
-    </row>
-    <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/templates/permiso_economico.xlsx
+++ b/templates/permiso_economico.xlsx
@@ -185,13 +185,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF757070"/>
       <name val="Arial Narrow"/>
@@ -202,6 +195,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -548,56 +548,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,40 +602,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -954,7 +954,7 @@
   <dimension ref="A2:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G26"/>
+      <selection activeCell="N26" sqref="A25:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -975,22 +975,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1000,20 +1000,20 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1023,20 +1023,20 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
@@ -1078,25 +1078,25 @@
       <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="48">
         <v>22</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,21 +1109,21 @@
       <c r="G7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,21 +1136,21 @@
       <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
       <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1163,21 +1163,21 @@
       <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -1189,21 +1189,21 @@
       <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -1215,21 +1215,21 @@
       <c r="G11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
     </row>
     <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1241,21 +1241,21 @@
       <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -1280,146 +1280,146 @@
     </row>
     <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="46"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="32" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="21"/>
     </row>
     <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="35" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="50" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="43"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="46"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="33"/>
       <c r="U18" s="15"/>
     </row>
     <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="49"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
       <c r="U19" s="15"/>
     </row>
     <row r="20" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1445,33 +1445,33 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="51" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="51" t="s">
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
     </row>
     <row r="22" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -1520,87 +1520,87 @@
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="53" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="54" t="s">
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
     </row>
     <row r="26" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="55" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="56" t="s">
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2578,12 +2578,17 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:U25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:U26"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="H15:T15"/>
     <mergeCell ref="H16:T16"/>
@@ -2596,17 +2601,12 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:U21"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:U25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:U26"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
